--- a/biology/Botanique/Euphorbia_peplis/Euphorbia_peplis.xlsx
+++ b/biology/Botanique/Euphorbia_peplis/Euphorbia_peplis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia peplis est une espèce de plantes à fleurs de la famille des Euphorbiacées. C'est une plante herbacée rampante.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphorbia peplis est originaire d'Europe du Sud et de l'Ouest, d'Afrique du Nord et d'Asie du Sud-Ouest.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse généralement sur le sable et les galets côtiers.
 </t>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle petite, prostrée, les tiges rougeâtres atteignent 10-20 cm de long.
-La floraison a lieu de mai à septembre[2].
+La floraison a lieu de mai à septembre.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle figure sur l'annexe II de la Liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain: Espèces protégées. Ramassage ou récolte soumis à l'autorisation du ministre.
 L'espèce n'est pas considérée comme menacée en France. Elle est classée en préoccupation mineure (LC) par l'UICN.
